--- a/Generate_information/output_check.xlsx
+++ b/Generate_information/output_check.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudos\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudos\OneDrive\document\GitHub\generative_ai_east_asian_studies\Generate_information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4745515-A0CD-4C61-816F-E0433297509B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB3D29B-9D1E-4142-A08E-C0744590CF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{8AC5CAE4-F19B-4665-ACF7-E6777070EA08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8AC5CAE4-F19B-4665-ACF7-E6777070EA08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$34</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="98">
   <si>
     <t>cleaned_name</t>
   </si>
@@ -300,13 +303,43 @@
   </si>
   <si>
     <t>若翰·梅洛·里贝罗</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>Swiss</t>
+  </si>
+  <si>
+    <t>nationality_ground_truth</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Bohemian</t>
+  </si>
+  <si>
+    <t>nationality_check</t>
+  </si>
+  <si>
+    <t>correct_rate</t>
+  </si>
+  <si>
+    <t>Dalmatia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,8 +359,22 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,8 +387,31 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -366,9 +436,31 @@
       <left style="medium">
         <color rgb="FFD9D9E3"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FFD9D9E3"/>
       </top>
@@ -378,9 +470,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
+      <left/>
       <right/>
       <top/>
       <bottom style="medium">
@@ -388,39 +478,51 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD9D9E3"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -733,695 +835,1054 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CF7D93-FB44-4DE8-9E33-65386AA15BEA}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="H1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="2">
         <v>1580</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="2">
         <v>1649</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="314.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="G2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="12" t="b">
+        <f>H2=F2</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="13">
+        <f>COUNTIF(I:I,"TRUE")/ROWS(I2:I34)</f>
+        <v>0.51515151515151514</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="2">
         <v>1554</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="2">
         <v>1632</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="H3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="12" t="b">
+        <f t="shared" ref="I3:I34" si="0">H3=F3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="2">
         <v>1569</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="2">
         <v>1630</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="2">
         <v>1566</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="2">
         <v>1640</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="G5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="2">
         <v>1562</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="2">
         <v>1607</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="2">
         <v>1596</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="2">
         <v>1649</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="2">
         <v>1579</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="2">
         <v>1637</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="228.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="2">
         <v>1575</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="2">
         <v>1620</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="228.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="H9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D10" s="2">
         <v>1574</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="2">
         <v>1659</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="228.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="H10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="2">
         <v>1577</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="2">
         <v>1628</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="H11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D12" s="2">
         <v>1568</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="2">
         <v>1620</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D13" s="2">
         <v>1579</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="2">
         <v>1620</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F13" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D14" s="2">
         <v>1575</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E14" s="2">
         <v>1630</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="G14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>36</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D15" s="2">
         <v>1567</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E15" s="2">
         <v>1623</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F15" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D16" s="2">
         <v>1578</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="2">
         <v>1649</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="G16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>38</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="2">
         <v>1585</v>
       </c>
-      <c r="D17" s="3">
+      <c r="E17" s="2">
         <v>1649</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F17" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>38</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="3">
+      <c r="D18" s="2">
         <v>1569</v>
       </c>
-      <c r="D18" s="3">
+      <c r="E18" s="2">
         <v>1629</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F18" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="2">
         <v>1567</v>
       </c>
-      <c r="D19" s="3">
+      <c r="E19" s="2">
         <v>1639</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F19" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D20" s="2">
         <v>1583</v>
       </c>
-      <c r="D20" s="3">
+      <c r="E20" s="2">
         <v>1649</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="H20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D21" s="2">
         <v>1582</v>
       </c>
-      <c r="D21" s="3">
+      <c r="E21" s="2">
         <v>1649</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="300" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="G21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>41</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="3">
+      <c r="D22" s="2">
         <v>1585</v>
       </c>
-      <c r="D22" s="3">
+      <c r="E22" s="2">
         <v>1658</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="H22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>42</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="3">
+      <c r="D23" s="2">
         <v>1578</v>
       </c>
-      <c r="D23" s="3">
+      <c r="E23" s="2">
         <v>1652</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="G23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>43</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="3">
+      <c r="D24" s="2">
         <v>1582</v>
       </c>
-      <c r="D24" s="3">
+      <c r="E24" s="2">
         <v>1648</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="G24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>44</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="3">
+      <c r="D25" s="2">
         <v>1576</v>
       </c>
-      <c r="D25" s="3">
+      <c r="E25" s="2">
         <v>1629</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F25" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I25" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>44</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="G26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>45</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="G27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>46</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="3">
+      <c r="D28" s="2">
         <v>1584</v>
       </c>
-      <c r="D28" s="3">
+      <c r="E28" s="2">
         <v>1653</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F28" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>47</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="3">
+      <c r="D29" s="2">
         <v>1586</v>
       </c>
-      <c r="D29" s="3">
+      <c r="E29" s="2">
         <v>1649</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="G29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I29" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>48</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="3">
+      <c r="D30" s="2">
         <v>1575</v>
       </c>
-      <c r="D30" s="3">
+      <c r="E30" s="2">
         <v>1624</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F30" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>49</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="3">
+      <c r="D31" s="2">
         <v>1588</v>
       </c>
-      <c r="D31" s="3">
+      <c r="E31" s="2">
         <v>1626</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="271.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="H31" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>50</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="3">
+      <c r="D32" s="2">
         <v>1592</v>
       </c>
-      <c r="D32" s="3">
+      <c r="E32" s="2">
         <v>1666</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="G32" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="H32" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>51</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="3">
+      <c r="D33" s="2">
         <v>1565</v>
       </c>
-      <c r="D33" s="3">
+      <c r="E33" s="2">
         <v>1620</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F33" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>52</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="3">
+      <c r="D34" s="2">
         <v>1568</v>
       </c>
-      <c r="D34" s="3">
+      <c r="E34" s="2">
         <v>1620</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F34" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J34" xr:uid="{A4CF7D93-FB44-4DE8-9E33-65386AA15BEA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>